--- a/data/pca/factorExposure/factorExposure_2019-04-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1318088069224338</v>
+        <v>-0.0780017845810671</v>
       </c>
       <c r="C2">
-        <v>-0.01196431010333104</v>
+        <v>0.03889803722104525</v>
       </c>
       <c r="D2">
-        <v>0.0440456814792752</v>
+        <v>0.0006444486460849632</v>
       </c>
       <c r="E2">
-        <v>-0.1010979239423284</v>
+        <v>0.03988276989908899</v>
       </c>
       <c r="F2">
-        <v>-0.1095959185716384</v>
+        <v>0.1408610180170821</v>
       </c>
       <c r="G2">
-        <v>-0.002109249922208312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1151517160100607</v>
+      </c>
+      <c r="H2">
+        <v>-0.03970077187955114</v>
+      </c>
+      <c r="I2">
+        <v>-0.00465694172569169</v>
+      </c>
+      <c r="J2">
+        <v>-0.08095561062671773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2284032729036422</v>
+        <v>-0.1684728457643275</v>
       </c>
       <c r="C3">
-        <v>0.09902928583726976</v>
+        <v>0.07708056358614926</v>
       </c>
       <c r="D3">
-        <v>-0.03257474006307519</v>
+        <v>-0.06349324136190154</v>
       </c>
       <c r="E3">
-        <v>-0.3165657258526908</v>
+        <v>-0.01845636291421626</v>
       </c>
       <c r="F3">
-        <v>-0.02884260359293854</v>
+        <v>0.372604773453222</v>
       </c>
       <c r="G3">
-        <v>0.1184787138784304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1111161914552726</v>
+      </c>
+      <c r="H3">
+        <v>-0.2584932092995743</v>
+      </c>
+      <c r="I3">
+        <v>-0.1128946873609611</v>
+      </c>
+      <c r="J3">
+        <v>-0.3095320698464742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.1012437867320046</v>
+        <v>-0.07553992129831169</v>
       </c>
       <c r="C4">
-        <v>0.02834994475584896</v>
+        <v>0.02562481878459217</v>
       </c>
       <c r="D4">
-        <v>0.02405122736452664</v>
+        <v>-0.03739035955164124</v>
       </c>
       <c r="E4">
-        <v>-0.07737303828373129</v>
+        <v>0.03290213878995435</v>
       </c>
       <c r="F4">
-        <v>-0.04415509304767438</v>
+        <v>0.08326377603477732</v>
       </c>
       <c r="G4">
-        <v>0.02012804144831271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.0449258693101501</v>
+      </c>
+      <c r="H4">
+        <v>-0.01783924347155545</v>
+      </c>
+      <c r="I4">
+        <v>-0.01605841309615336</v>
+      </c>
+      <c r="J4">
+        <v>-0.07047532539979175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01815915318816313</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.001412805409734082</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.008234922052724365</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.002418597205413949</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001114011453288782</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02017373987980597</v>
+      </c>
+      <c r="H6">
+        <v>-0.004058313060421388</v>
+      </c>
+      <c r="I6">
+        <v>0.0097280959408958</v>
+      </c>
+      <c r="J6">
+        <v>-0.00244521543261987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04304315801568523</v>
+        <v>-0.03563560198619894</v>
       </c>
       <c r="C7">
-        <v>0.005204953669100084</v>
+        <v>-0.006911692990654987</v>
       </c>
       <c r="D7">
-        <v>0.0317952705318085</v>
+        <v>-0.04019742117254203</v>
       </c>
       <c r="E7">
-        <v>-0.0763050918765444</v>
+        <v>0.02692542864718066</v>
       </c>
       <c r="F7">
-        <v>0.04546696450065367</v>
+        <v>0.05654204931806071</v>
       </c>
       <c r="G7">
-        <v>-0.01157316441563754</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.002530812415646475</v>
+      </c>
+      <c r="H7">
+        <v>-0.04499530478030649</v>
+      </c>
+      <c r="I7">
+        <v>0.02055933071724801</v>
+      </c>
+      <c r="J7">
+        <v>-0.04902651140390701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04277236282697859</v>
+        <v>-0.03155231377352988</v>
       </c>
       <c r="C8">
-        <v>0.04113085871149116</v>
+        <v>0.02838016794207487</v>
       </c>
       <c r="D8">
-        <v>0.005227469237473921</v>
+        <v>-0.03812489080252415</v>
       </c>
       <c r="E8">
-        <v>-0.07229267058495673</v>
+        <v>0.01261460515571781</v>
       </c>
       <c r="F8">
-        <v>-0.01118204181235216</v>
+        <v>0.07591238867042414</v>
       </c>
       <c r="G8">
-        <v>0.01432231997673336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02412031029582273</v>
+      </c>
+      <c r="H8">
+        <v>-0.04364723285132285</v>
+      </c>
+      <c r="I8">
+        <v>-0.0137112597672341</v>
+      </c>
+      <c r="J8">
+        <v>-0.07252202387723583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08826330116375074</v>
+        <v>-0.06272856198901665</v>
       </c>
       <c r="C9">
-        <v>0.03077147313991316</v>
+        <v>0.02306590339472263</v>
       </c>
       <c r="D9">
-        <v>0.0323440220589654</v>
+        <v>-0.04167854076290573</v>
       </c>
       <c r="E9">
-        <v>-0.06380395327694555</v>
+        <v>0.03208167376669571</v>
       </c>
       <c r="F9">
-        <v>-0.03275583947027881</v>
+        <v>0.08357743640559027</v>
       </c>
       <c r="G9">
-        <v>0.04070007017861795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.0421026185289967</v>
+      </c>
+      <c r="H9">
+        <v>-0.01441687249021216</v>
+      </c>
+      <c r="I9">
+        <v>0.001433652464284414</v>
+      </c>
+      <c r="J9">
+        <v>-0.04014555137577944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.00633353008926031</v>
+        <v>-0.01939283145401741</v>
       </c>
       <c r="C10">
-        <v>-0.1582828631014361</v>
+        <v>-0.1152544477956599</v>
       </c>
       <c r="D10">
-        <v>-0.01596331353290107</v>
+        <v>0.1055353246593948</v>
       </c>
       <c r="E10">
-        <v>-0.06676562097946478</v>
+        <v>-0.02515102021752413</v>
       </c>
       <c r="F10">
-        <v>-0.021746619882341</v>
+        <v>0.07113357242811975</v>
       </c>
       <c r="G10">
-        <v>-0.03035837023711957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02511173098607425</v>
+      </c>
+      <c r="H10">
+        <v>0.002490034912420365</v>
+      </c>
+      <c r="I10">
+        <v>-0.1124636502732985</v>
+      </c>
+      <c r="J10">
+        <v>-0.03163291609904864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05820379873909654</v>
+        <v>-0.04854218144487137</v>
       </c>
       <c r="C11">
-        <v>0.005749689673660804</v>
+        <v>0.02479486917233738</v>
       </c>
       <c r="D11">
-        <v>-0.008723584558150213</v>
+        <v>-0.009976294011602148</v>
       </c>
       <c r="E11">
-        <v>-0.0391226157369357</v>
+        <v>0.005504936968679281</v>
       </c>
       <c r="F11">
-        <v>-0.008157320157548862</v>
+        <v>0.03998632228502012</v>
       </c>
       <c r="G11">
-        <v>-0.02867231331950178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.007130636501380182</v>
+      </c>
+      <c r="H11">
+        <v>-0.0002322796054065464</v>
+      </c>
+      <c r="I11">
+        <v>0.02545577390075629</v>
+      </c>
+      <c r="J11">
+        <v>-0.03824307274999784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.0455712691014178</v>
+        <v>-0.0461072829245693</v>
       </c>
       <c r="C12">
-        <v>0.01252837760831488</v>
+        <v>0.01719966515702739</v>
       </c>
       <c r="D12">
-        <v>-0.004415605428475167</v>
+        <v>-0.01792791719344666</v>
       </c>
       <c r="E12">
-        <v>-0.02961463348343665</v>
+        <v>0.009079684265143828</v>
       </c>
       <c r="F12">
-        <v>-0.001024452458387752</v>
+        <v>0.01870577479716359</v>
       </c>
       <c r="G12">
-        <v>-0.004993280231656678</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0009623622215905049</v>
+      </c>
+      <c r="H12">
+        <v>-0.002139731944382049</v>
+      </c>
+      <c r="I12">
+        <v>0.0207167715202212</v>
+      </c>
+      <c r="J12">
+        <v>-0.01925394792153672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06428503270939111</v>
+        <v>-0.04222353874760326</v>
       </c>
       <c r="C13">
-        <v>0.01631736465861321</v>
+        <v>0.03087458486899462</v>
       </c>
       <c r="D13">
-        <v>-0.0104798591840245</v>
+        <v>-0.00408689543527051</v>
       </c>
       <c r="E13">
-        <v>-0.1072730257998853</v>
+        <v>0.005791750606006514</v>
       </c>
       <c r="F13">
-        <v>-0.02292255613892718</v>
+        <v>0.1046444538950567</v>
       </c>
       <c r="G13">
-        <v>-0.01450967446785272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02646596847949171</v>
+      </c>
+      <c r="H13">
+        <v>-0.04129015264932304</v>
+      </c>
+      <c r="I13">
+        <v>0.008779937431501553</v>
+      </c>
+      <c r="J13">
+        <v>-0.06130152169870957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03711915623413722</v>
+        <v>-0.02959364226073502</v>
       </c>
       <c r="C14">
-        <v>0.007086528394712992</v>
+        <v>0.01062656496667997</v>
       </c>
       <c r="D14">
-        <v>0.02070268053566068</v>
+        <v>-0.01550257592453278</v>
       </c>
       <c r="E14">
-        <v>-0.01805928710546842</v>
+        <v>0.02444883808742598</v>
       </c>
       <c r="F14">
-        <v>-0.004065785818212527</v>
+        <v>0.03813104261556632</v>
       </c>
       <c r="G14">
-        <v>-0.03038002062394072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03476978549328721</v>
+      </c>
+      <c r="H14">
+        <v>-0.04563559551192068</v>
+      </c>
+      <c r="I14">
+        <v>-0.005566825357514225</v>
+      </c>
+      <c r="J14">
+        <v>-0.02112309010732202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04957933241953125</v>
+        <v>-0.04349664439332296</v>
       </c>
       <c r="C16">
-        <v>0.02202463906164625</v>
+        <v>0.02816968698081054</v>
       </c>
       <c r="D16">
-        <v>-0.01241161652747401</v>
+        <v>-0.02041034004280089</v>
       </c>
       <c r="E16">
-        <v>-0.03536055424401412</v>
+        <v>0.003103015847689431</v>
       </c>
       <c r="F16">
-        <v>0.003470244778132559</v>
+        <v>0.03350527087927164</v>
       </c>
       <c r="G16">
-        <v>-0.01177579529686127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005365830525594933</v>
+      </c>
+      <c r="H16">
+        <v>-0.009002020153971281</v>
+      </c>
+      <c r="I16">
+        <v>0.02182753831343222</v>
+      </c>
+      <c r="J16">
+        <v>-0.03139446861104941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05501137392203835</v>
+        <v>-0.04734060413456299</v>
       </c>
       <c r="C19">
-        <v>0.03272423931301507</v>
+        <v>0.03345795576316593</v>
       </c>
       <c r="D19">
-        <v>-0.001793094059799677</v>
+        <v>-0.02392975191936267</v>
       </c>
       <c r="E19">
-        <v>-0.06894158589874928</v>
+        <v>0.01302370758335129</v>
       </c>
       <c r="F19">
-        <v>0.01339588588618111</v>
+        <v>0.08374555466890891</v>
       </c>
       <c r="G19">
-        <v>-0.02870406462999877</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.02022751115147752</v>
+      </c>
+      <c r="H19">
+        <v>-0.08265725440100392</v>
+      </c>
+      <c r="I19">
+        <v>-0.01675491453423683</v>
+      </c>
+      <c r="J19">
+        <v>-0.05804435554478393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03920076009783625</v>
+        <v>-0.01917777318106353</v>
       </c>
       <c r="C20">
-        <v>0.0354696455053313</v>
+        <v>0.02403111636769142</v>
       </c>
       <c r="D20">
-        <v>0.01449465882936061</v>
+        <v>-0.02753200187843563</v>
       </c>
       <c r="E20">
-        <v>-0.06181212970660649</v>
+        <v>0.0191156626872272</v>
       </c>
       <c r="F20">
-        <v>0.01177345175906992</v>
+        <v>0.07052707088230056</v>
       </c>
       <c r="G20">
-        <v>-0.01117919592842601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01979026441852443</v>
+      </c>
+      <c r="H20">
+        <v>-0.0621712995647294</v>
+      </c>
+      <c r="I20">
+        <v>0.0017042762032209</v>
+      </c>
+      <c r="J20">
+        <v>-0.07920134090935416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03957648686644646</v>
+        <v>-0.02329875768173315</v>
       </c>
       <c r="C21">
-        <v>0.01710053256165016</v>
+        <v>0.01473958474819485</v>
       </c>
       <c r="D21">
-        <v>0.001786334918187107</v>
+        <v>-0.03110081454372282</v>
       </c>
       <c r="E21">
-        <v>-0.09350436647285161</v>
+        <v>0.002525371786964655</v>
       </c>
       <c r="F21">
-        <v>-0.05622968703904051</v>
+        <v>0.07896561721201119</v>
       </c>
       <c r="G21">
-        <v>-0.02099983440612119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0377199963683712</v>
+      </c>
+      <c r="H21">
+        <v>-0.02187940650000752</v>
+      </c>
+      <c r="I21">
+        <v>0.01395974666332888</v>
+      </c>
+      <c r="J21">
+        <v>-0.02663930366582632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.05092480770065459</v>
+        <v>-0.04252071901678933</v>
       </c>
       <c r="C24">
-        <v>0.01471205283719736</v>
+        <v>0.01935459669046675</v>
       </c>
       <c r="D24">
-        <v>-0.002624618311308475</v>
+        <v>-0.01309634720434812</v>
       </c>
       <c r="E24">
-        <v>-0.04336829107955568</v>
+        <v>0.007619477633343963</v>
       </c>
       <c r="F24">
-        <v>0.0004698890176276431</v>
+        <v>0.04018406927190914</v>
       </c>
       <c r="G24">
-        <v>-0.0077305496060627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004657303181759865</v>
+      </c>
+      <c r="H24">
+        <v>-0.006787034911975485</v>
+      </c>
+      <c r="I24">
+        <v>0.02202807024062253</v>
+      </c>
+      <c r="J24">
+        <v>-0.03793842990540393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05072994022391369</v>
+        <v>-0.04460490341624206</v>
       </c>
       <c r="C25">
-        <v>0.005594303349867834</v>
+        <v>0.02010186259849901</v>
       </c>
       <c r="D25">
-        <v>-0.005455472875672274</v>
+        <v>-0.01261015085098126</v>
       </c>
       <c r="E25">
-        <v>-0.04170811711882042</v>
+        <v>0.005678951797957856</v>
       </c>
       <c r="F25">
-        <v>-0.0091238635512116</v>
+        <v>0.04412333955410024</v>
       </c>
       <c r="G25">
-        <v>-0.01608639516910436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002123313604023826</v>
+      </c>
+      <c r="H25">
+        <v>-0.0005145863178647475</v>
+      </c>
+      <c r="I25">
+        <v>0.02056456466353779</v>
+      </c>
+      <c r="J25">
+        <v>-0.02793277109868337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01295363819988679</v>
+        <v>-0.0163968275405616</v>
       </c>
       <c r="C26">
-        <v>0.0223344438851426</v>
+        <v>0.02007062226040411</v>
       </c>
       <c r="D26">
-        <v>0.005305147675062746</v>
+        <v>-0.01097149204883668</v>
       </c>
       <c r="E26">
-        <v>-0.03554030439924916</v>
+        <v>0.0004957659124426813</v>
       </c>
       <c r="F26">
-        <v>-0.01333319565353658</v>
+        <v>0.04512818691344268</v>
       </c>
       <c r="G26">
-        <v>-0.0238576002371103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02016424840821449</v>
+      </c>
+      <c r="H26">
+        <v>-0.02527564197261788</v>
+      </c>
+      <c r="I26">
+        <v>0.01491344358688666</v>
+      </c>
+      <c r="J26">
+        <v>-0.03668930635666485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1123163513558018</v>
+        <v>-0.0804225562819116</v>
       </c>
       <c r="C27">
-        <v>0.01968410407981951</v>
+        <v>0.02319017720158966</v>
       </c>
       <c r="D27">
-        <v>0.0237507283803709</v>
+        <v>-0.02106801448423094</v>
       </c>
       <c r="E27">
-        <v>-0.1029366273022355</v>
+        <v>0.03080789912236613</v>
       </c>
       <c r="F27">
-        <v>-0.01938353397748539</v>
+        <v>0.07512956508785693</v>
       </c>
       <c r="G27">
-        <v>-0.0003327123424223958</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01464875423503874</v>
+      </c>
+      <c r="H27">
+        <v>-0.003880318543793664</v>
+      </c>
+      <c r="I27">
+        <v>-0.0005141724597361062</v>
+      </c>
+      <c r="J27">
+        <v>-0.04832816013882887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.006487155696150488</v>
+        <v>-0.03453177605072047</v>
       </c>
       <c r="C28">
-        <v>-0.2455545665518674</v>
+        <v>-0.1769854346005889</v>
       </c>
       <c r="D28">
-        <v>-0.02052739846137087</v>
+        <v>0.1488865338645156</v>
       </c>
       <c r="E28">
-        <v>-0.04249040879506182</v>
+        <v>-0.0363732517973057</v>
       </c>
       <c r="F28">
-        <v>-0.02356800889995003</v>
+        <v>0.05677117302396262</v>
       </c>
       <c r="G28">
-        <v>-0.00399422720261207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02957743846905203</v>
+      </c>
+      <c r="H28">
+        <v>0.01701236539077145</v>
+      </c>
+      <c r="I28">
+        <v>-0.1558279738189825</v>
+      </c>
+      <c r="J28">
+        <v>-0.0426464335716063</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02093583625441866</v>
+        <v>-0.02147173973102336</v>
       </c>
       <c r="C29">
-        <v>0.01403944879284441</v>
+        <v>0.01024255526294874</v>
       </c>
       <c r="D29">
-        <v>0.02319226890486097</v>
+        <v>-0.02024718621728056</v>
       </c>
       <c r="E29">
-        <v>-0.02482224095303343</v>
+        <v>0.02349882690083751</v>
       </c>
       <c r="F29">
-        <v>-0.01788067987052983</v>
+        <v>0.03845506993511713</v>
       </c>
       <c r="G29">
-        <v>-0.02827011378167133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03782865024069381</v>
+      </c>
+      <c r="H29">
+        <v>-0.04292887483355957</v>
+      </c>
+      <c r="I29">
+        <v>0.0007333457342873809</v>
+      </c>
+      <c r="J29">
+        <v>-0.01136254555868804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1099808086571023</v>
+        <v>-0.09486404887260598</v>
       </c>
       <c r="C30">
-        <v>0.01221380366057189</v>
+        <v>0.0587185908325516</v>
       </c>
       <c r="D30">
-        <v>0.02157529148575201</v>
+        <v>0.00381446056453035</v>
       </c>
       <c r="E30">
-        <v>-0.1094144174101382</v>
+        <v>0.02977223134225816</v>
       </c>
       <c r="F30">
-        <v>-0.008718876436214223</v>
+        <v>0.1000101534036658</v>
       </c>
       <c r="G30">
-        <v>-0.05224975668987661</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01358443238409848</v>
+      </c>
+      <c r="H30">
+        <v>-0.01280865195864737</v>
+      </c>
+      <c r="I30">
+        <v>0.02600034803578867</v>
+      </c>
+      <c r="J30">
+        <v>-0.02721352296399701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05812730801580342</v>
+        <v>-0.06270737822696341</v>
       </c>
       <c r="C31">
-        <v>0.01329447872524578</v>
+        <v>0.02365564971065566</v>
       </c>
       <c r="D31">
-        <v>0.02044993726055229</v>
+        <v>-0.003384398879284039</v>
       </c>
       <c r="E31">
-        <v>0.02111121898402194</v>
+        <v>0.02056233845138169</v>
       </c>
       <c r="F31">
-        <v>-0.008644025628199855</v>
+        <v>0.004172786956081184</v>
       </c>
       <c r="G31">
-        <v>-0.05225331593102767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04607274087635114</v>
+      </c>
+      <c r="H31">
+        <v>-0.02497500470398863</v>
+      </c>
+      <c r="I31">
+        <v>-0.004056738892866451</v>
+      </c>
+      <c r="J31">
+        <v>-0.01863081779749669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.07077535637749766</v>
+        <v>-0.04705380294403974</v>
       </c>
       <c r="C32">
-        <v>0.02660368746701406</v>
+        <v>0.03153330195422941</v>
       </c>
       <c r="D32">
-        <v>0.01253733499847334</v>
+        <v>-0.04314992676144408</v>
       </c>
       <c r="E32">
-        <v>-0.1099175794945812</v>
+        <v>0.02524940954167786</v>
       </c>
       <c r="F32">
-        <v>0.002110642872701961</v>
+        <v>0.09122577385255874</v>
       </c>
       <c r="G32">
-        <v>-0.03552784030053147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01443345419968653</v>
+      </c>
+      <c r="H32">
+        <v>-0.03129165407239328</v>
+      </c>
+      <c r="I32">
+        <v>-0.003738942570823381</v>
+      </c>
+      <c r="J32">
+        <v>-0.05049781890261007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.07023185901396106</v>
+        <v>-0.05787512956645724</v>
       </c>
       <c r="C33">
-        <v>0.03398218704809765</v>
+        <v>0.05159022067675654</v>
       </c>
       <c r="D33">
-        <v>0.009184886574087099</v>
+        <v>-0.01600907736706442</v>
       </c>
       <c r="E33">
-        <v>-0.07224857879962668</v>
+        <v>0.005911321123896854</v>
       </c>
       <c r="F33">
-        <v>-0.05154450462897642</v>
+        <v>0.08029626620077293</v>
       </c>
       <c r="G33">
-        <v>-0.02079273934382989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03897715331068503</v>
+      </c>
+      <c r="H33">
+        <v>-0.03063844128427032</v>
+      </c>
+      <c r="I33">
+        <v>0.02678746919521411</v>
+      </c>
+      <c r="J33">
+        <v>-0.04644230154947891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.05001772375968888</v>
+        <v>-0.04526135099194997</v>
       </c>
       <c r="C34">
-        <v>0.01326987013730789</v>
+        <v>0.02057932681470643</v>
       </c>
       <c r="D34">
-        <v>-0.00328092145821133</v>
+        <v>-0.01998113598221948</v>
       </c>
       <c r="E34">
-        <v>-0.02403668122384029</v>
+        <v>0.01419086265922569</v>
       </c>
       <c r="F34">
-        <v>0.003347267233724537</v>
+        <v>0.03302511330999349</v>
       </c>
       <c r="G34">
-        <v>-0.01483737489769239</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.004180842798781125</v>
+      </c>
+      <c r="H34">
+        <v>-0.01067784294021329</v>
+      </c>
+      <c r="I34">
+        <v>0.02042097736001757</v>
+      </c>
+      <c r="J34">
+        <v>-0.02590823413587658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01341565844278489</v>
+        <v>-0.01580476004464971</v>
       </c>
       <c r="C36">
-        <v>-0.008584526777978784</v>
+        <v>0.0003088480998830584</v>
       </c>
       <c r="D36">
-        <v>0.0065583779295649</v>
+        <v>-0.005547880011979016</v>
       </c>
       <c r="E36">
-        <v>-0.02117529226398752</v>
+        <v>0.008279809540557207</v>
       </c>
       <c r="F36">
-        <v>-0.008398113668313568</v>
+        <v>0.02818657213219429</v>
       </c>
       <c r="G36">
-        <v>-0.02477087719455338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02550585040029843</v>
+      </c>
+      <c r="H36">
+        <v>-0.02478122046453908</v>
+      </c>
+      <c r="I36">
+        <v>0.003795090104107627</v>
+      </c>
+      <c r="J36">
+        <v>-0.005338441294775659</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05650051495239276</v>
+        <v>-0.03407450394359059</v>
       </c>
       <c r="C38">
-        <v>0.008086665290159972</v>
+        <v>0.008789698791551297</v>
       </c>
       <c r="D38">
-        <v>0.02483499124500225</v>
+        <v>-0.009759146910637079</v>
       </c>
       <c r="E38">
-        <v>-0.03624338430537965</v>
+        <v>0.009521605614876475</v>
       </c>
       <c r="F38">
-        <v>-0.006006902261144435</v>
+        <v>0.05187414732217191</v>
       </c>
       <c r="G38">
-        <v>0.02300111441228069</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02829278625462534</v>
+      </c>
+      <c r="H38">
+        <v>-0.008380087007011481</v>
+      </c>
+      <c r="I38">
+        <v>0.009405357854477268</v>
+      </c>
+      <c r="J38">
+        <v>0.001366664973294589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07736868961665623</v>
+        <v>-0.05763421366936707</v>
       </c>
       <c r="C39">
-        <v>0.01224878874086022</v>
+        <v>0.03625091505782687</v>
       </c>
       <c r="D39">
-        <v>0.002555068605833519</v>
+        <v>-0.02088623220082043</v>
       </c>
       <c r="E39">
-        <v>-0.04120690815474484</v>
+        <v>0.01489064197248929</v>
       </c>
       <c r="F39">
-        <v>-0.02204493884034324</v>
+        <v>0.05595230772812267</v>
       </c>
       <c r="G39">
-        <v>-0.01704808344252064</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01576699560041455</v>
+      </c>
+      <c r="H39">
+        <v>0.002850319927707592</v>
+      </c>
+      <c r="I39">
+        <v>0.04565324404151357</v>
+      </c>
+      <c r="J39">
+        <v>-0.03210080215373576</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07511261996804285</v>
+        <v>-0.05685512237572135</v>
       </c>
       <c r="C40">
-        <v>0.02888152476743853</v>
+        <v>0.04449954063586076</v>
       </c>
       <c r="D40">
-        <v>0.004708472803575685</v>
+        <v>-0.007410735088691298</v>
       </c>
       <c r="E40">
-        <v>-0.1006109791859819</v>
+        <v>0.01993709101031519</v>
       </c>
       <c r="F40">
-        <v>-0.04013576145937275</v>
+        <v>0.09850443468326121</v>
       </c>
       <c r="G40">
-        <v>0.02324790023404769</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03087602086076273</v>
+      </c>
+      <c r="H40">
+        <v>-0.04628514387690671</v>
+      </c>
+      <c r="I40">
+        <v>0.02288179530216685</v>
+      </c>
+      <c r="J40">
+        <v>-0.1125565050772929</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003536904142641669</v>
+        <v>-0.002609511353710472</v>
       </c>
       <c r="C41">
-        <v>0.01047579731911785</v>
+        <v>0.008965455341216615</v>
       </c>
       <c r="D41">
-        <v>0.02211864017256738</v>
+        <v>-0.008050325720943897</v>
       </c>
       <c r="E41">
-        <v>-0.01126001054876371</v>
+        <v>0.006765838385989362</v>
       </c>
       <c r="F41">
-        <v>-0.02975886426428258</v>
+        <v>0.01523299749700456</v>
       </c>
       <c r="G41">
-        <v>-0.02887135515270416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.04030613242687881</v>
+      </c>
+      <c r="H41">
+        <v>-0.02688427472294181</v>
+      </c>
+      <c r="I41">
+        <v>-0.01493675549806242</v>
+      </c>
+      <c r="J41">
+        <v>-0.02157659653566493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.133340123448814</v>
+        <v>-0.2159107223160299</v>
       </c>
       <c r="C42">
-        <v>0.210267077584905</v>
+        <v>0.1911515685552772</v>
       </c>
       <c r="D42">
-        <v>-0.9268372589032736</v>
+        <v>-0.06607843703553415</v>
       </c>
       <c r="E42">
-        <v>0.04229601479425365</v>
+        <v>-0.9259528424931655</v>
       </c>
       <c r="F42">
-        <v>0.02639913183733356</v>
+        <v>-0.1597100734398904</v>
       </c>
       <c r="G42">
-        <v>-0.07789608692203787</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.0087488355289282</v>
+      </c>
+      <c r="H42">
+        <v>-0.004118200442859116</v>
+      </c>
+      <c r="I42">
+        <v>-0.04165629347046763</v>
+      </c>
+      <c r="J42">
+        <v>-0.03891202631238049</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007870509597661711</v>
+        <v>-0.005178297776708207</v>
       </c>
       <c r="C43">
-        <v>0.01541756222373791</v>
+        <v>0.01327776874620253</v>
       </c>
       <c r="D43">
-        <v>0.01677244070666926</v>
+        <v>-0.007969935429876507</v>
       </c>
       <c r="E43">
-        <v>-0.0330938564378952</v>
+        <v>0.006807875323434808</v>
       </c>
       <c r="F43">
-        <v>-0.005503266063286312</v>
+        <v>0.02852590712829028</v>
       </c>
       <c r="G43">
-        <v>-0.02319615496173502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02413642664365169</v>
+      </c>
+      <c r="H43">
+        <v>-0.02838831719278867</v>
+      </c>
+      <c r="I43">
+        <v>-0.005620227449537614</v>
+      </c>
+      <c r="J43">
+        <v>-0.02811670952114811</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04052175253991126</v>
+        <v>-0.02885140935916735</v>
       </c>
       <c r="C44">
-        <v>0.03728390665605924</v>
+        <v>0.03201768207741151</v>
       </c>
       <c r="D44">
-        <v>0.01300187600288595</v>
+        <v>-0.02775332938820592</v>
       </c>
       <c r="E44">
-        <v>-0.1161078645841132</v>
+        <v>0.005771051674774465</v>
       </c>
       <c r="F44">
-        <v>-0.09500539476633971</v>
+        <v>0.1243239263362683</v>
       </c>
       <c r="G44">
-        <v>-0.03952985565517586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06967402254146324</v>
+      </c>
+      <c r="H44">
+        <v>-0.09004145573603502</v>
+      </c>
+      <c r="I44">
+        <v>-0.0122635969251189</v>
+      </c>
+      <c r="J44">
+        <v>-0.04219455428079379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02308363505248957</v>
+        <v>-0.02400408180341346</v>
       </c>
       <c r="C46">
-        <v>0.0114480918379547</v>
+        <v>0.0226754835269097</v>
       </c>
       <c r="D46">
-        <v>0.02497548170020554</v>
+        <v>-0.01464195985562547</v>
       </c>
       <c r="E46">
-        <v>-0.02284204296017876</v>
+        <v>0.02050669615783602</v>
       </c>
       <c r="F46">
-        <v>-0.02659044466861724</v>
+        <v>0.0473354931283372</v>
       </c>
       <c r="G46">
-        <v>-0.03331635754300857</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03473146409767743</v>
+      </c>
+      <c r="H46">
+        <v>-0.04564317291575216</v>
+      </c>
+      <c r="I46">
+        <v>-0.002791694289094286</v>
+      </c>
+      <c r="J46">
+        <v>-0.03032017761752876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08409221699852658</v>
+        <v>-0.09102456972468119</v>
       </c>
       <c r="C47">
-        <v>0.006606671619847985</v>
+        <v>0.02004758130722856</v>
       </c>
       <c r="D47">
-        <v>0.01995266999040368</v>
+        <v>-0.006075340178884144</v>
       </c>
       <c r="E47">
-        <v>0.02365117075776055</v>
+        <v>0.02522486925264182</v>
       </c>
       <c r="F47">
-        <v>-0.01025563757075963</v>
+        <v>-0.006425186515912688</v>
       </c>
       <c r="G47">
-        <v>-0.03525399615195359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.05037480974936044</v>
+      </c>
+      <c r="H47">
+        <v>-0.0492515543584699</v>
+      </c>
+      <c r="I47">
+        <v>-0.008168006636535738</v>
+      </c>
+      <c r="J47">
+        <v>-0.02699222693924981</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01685305017053688</v>
+        <v>-0.01858692469013042</v>
       </c>
       <c r="C48">
-        <v>0.01874904151694588</v>
+        <v>0.01603157148193782</v>
       </c>
       <c r="D48">
-        <v>0.01649291862229638</v>
+        <v>-0.0148077046497281</v>
       </c>
       <c r="E48">
-        <v>-0.03046554985990691</v>
+        <v>0.01178834629674001</v>
       </c>
       <c r="F48">
-        <v>-0.01210518830303242</v>
+        <v>0.03170330956161559</v>
       </c>
       <c r="G48">
-        <v>-0.01246455257023498</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01678935124637619</v>
+      </c>
+      <c r="H48">
+        <v>-0.02068084874448516</v>
+      </c>
+      <c r="I48">
+        <v>-0.00782135642775973</v>
+      </c>
+      <c r="J48">
+        <v>-0.01816593892398753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08499082748970763</v>
+        <v>-0.08783193252025928</v>
       </c>
       <c r="C50">
-        <v>0.02782196239266626</v>
+        <v>0.02277546376148507</v>
       </c>
       <c r="D50">
-        <v>0.02667924743429705</v>
+        <v>-0.02884611545748915</v>
       </c>
       <c r="E50">
-        <v>0.01942192657565507</v>
+        <v>0.02215128228106313</v>
       </c>
       <c r="F50">
-        <v>0.001536753053580678</v>
+        <v>-0.0007107730541598458</v>
       </c>
       <c r="G50">
-        <v>-0.03930593778347925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01097177551397103</v>
+      </c>
+      <c r="H50">
+        <v>-0.04142421869848371</v>
+      </c>
+      <c r="I50">
+        <v>0.01487307392527245</v>
+      </c>
+      <c r="J50">
+        <v>0.001307190156090516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06928329306230176</v>
+        <v>-0.04735773251607351</v>
       </c>
       <c r="C51">
-        <v>-0.02071127389657078</v>
+        <v>0.008360211471641952</v>
       </c>
       <c r="D51">
-        <v>-0.003254857396890859</v>
+        <v>0.01164637584445504</v>
       </c>
       <c r="E51">
-        <v>-0.07958443880766218</v>
+        <v>0.007356396230845437</v>
       </c>
       <c r="F51">
-        <v>-0.0571839306240142</v>
+        <v>0.09537892687489319</v>
       </c>
       <c r="G51">
-        <v>-0.08339728121681757</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.06039264641155946</v>
+      </c>
+      <c r="H51">
+        <v>-0.03995025594626545</v>
+      </c>
+      <c r="I51">
+        <v>-0.007768805409843027</v>
+      </c>
+      <c r="J51">
+        <v>-0.05659023453401421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1452156202023277</v>
+        <v>-0.1274538333181812</v>
       </c>
       <c r="C53">
-        <v>0.006693608292981321</v>
+        <v>0.03163704506486401</v>
       </c>
       <c r="D53">
-        <v>0.04148003421998996</v>
+        <v>-0.01233542341823517</v>
       </c>
       <c r="E53">
-        <v>0.04425332777951402</v>
+        <v>0.04708898008921053</v>
       </c>
       <c r="F53">
-        <v>0.007248336144922026</v>
+        <v>-0.03807580115440636</v>
       </c>
       <c r="G53">
-        <v>-0.03968472018416366</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02726565951814354</v>
+      </c>
+      <c r="H53">
+        <v>0.008322971945186448</v>
+      </c>
+      <c r="I53">
+        <v>-0.02784231129377407</v>
+      </c>
+      <c r="J53">
+        <v>-0.0387468730815959</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02806577502570885</v>
+        <v>-0.0241856718251892</v>
       </c>
       <c r="C54">
-        <v>-0.005390014653992688</v>
+        <v>0.003854498567659502</v>
       </c>
       <c r="D54">
-        <v>0.02841669068144855</v>
+        <v>-0.009289542862364672</v>
       </c>
       <c r="E54">
-        <v>-0.02898238093692416</v>
+        <v>0.02586841094934085</v>
       </c>
       <c r="F54">
-        <v>-0.05171891992010155</v>
+        <v>0.04102161025287267</v>
       </c>
       <c r="G54">
-        <v>-0.01678959336235378</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05606505947589284</v>
+      </c>
+      <c r="H54">
+        <v>-0.03595377385802254</v>
+      </c>
+      <c r="I54">
+        <v>-0.02993677576849284</v>
+      </c>
+      <c r="J54">
+        <v>-0.004193949590813131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09876678872056559</v>
+        <v>-0.1014702869103397</v>
       </c>
       <c r="C55">
-        <v>-0.006824788956520386</v>
+        <v>0.009408310798111559</v>
       </c>
       <c r="D55">
-        <v>0.03395722848752042</v>
+        <v>-0.02097002072769779</v>
       </c>
       <c r="E55">
-        <v>0.004425439992245082</v>
+        <v>0.03192603640376621</v>
       </c>
       <c r="F55">
-        <v>0.03512049217422719</v>
+        <v>-0.02829643590120339</v>
       </c>
       <c r="G55">
-        <v>0.01660417422325633</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005279897750747788</v>
+      </c>
+      <c r="H55">
+        <v>-0.01745101036739012</v>
+      </c>
+      <c r="I55">
+        <v>-0.008685589680558516</v>
+      </c>
+      <c r="J55">
+        <v>-0.03906489733772358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1797767490851973</v>
+        <v>-0.169712723622426</v>
       </c>
       <c r="C56">
-        <v>-0.01448658462052155</v>
+        <v>0.0127900051022977</v>
       </c>
       <c r="D56">
-        <v>0.07486180502797898</v>
+        <v>-0.008741868364443482</v>
       </c>
       <c r="E56">
-        <v>0.08707956976739555</v>
+        <v>0.08467550670875755</v>
       </c>
       <c r="F56">
-        <v>0.08234253477975699</v>
+        <v>-0.08693521739323234</v>
       </c>
       <c r="G56">
-        <v>0.008080857270353198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.03096966895246218</v>
+      </c>
+      <c r="H56">
+        <v>0.03776718389071555</v>
+      </c>
+      <c r="I56">
+        <v>-0.016171703186342</v>
+      </c>
+      <c r="J56">
+        <v>-0.04874905021412018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09711842929494577</v>
+        <v>-0.07321463573585456</v>
       </c>
       <c r="C57">
-        <v>0.02282616981804862</v>
+        <v>0.03780042405902147</v>
       </c>
       <c r="D57">
-        <v>0.02589927910332459</v>
+        <v>-0.007154467415690252</v>
       </c>
       <c r="E57">
-        <v>-0.04093175388206063</v>
+        <v>0.01386779997242999</v>
       </c>
       <c r="F57">
-        <v>-0.02634469111673699</v>
+        <v>0.06025712558112234</v>
       </c>
       <c r="G57">
-        <v>-0.02083533074850879</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02542755366867173</v>
+      </c>
+      <c r="H57">
+        <v>-0.019663147901257</v>
+      </c>
+      <c r="I57">
+        <v>0.01823935346732018</v>
+      </c>
+      <c r="J57">
+        <v>-0.03405946647208809</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1754761269449401</v>
+        <v>-0.2015184339357433</v>
       </c>
       <c r="C58">
-        <v>0.002302640738361784</v>
+        <v>0.1071771621316791</v>
       </c>
       <c r="D58">
-        <v>-0.04087615489495844</v>
+        <v>0.03078510825973629</v>
       </c>
       <c r="E58">
-        <v>-0.1355752768749098</v>
+        <v>-0.01332374175362105</v>
       </c>
       <c r="F58">
-        <v>0.04098680348116213</v>
+        <v>0.241414969351473</v>
       </c>
       <c r="G58">
-        <v>-0.02776752647450157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.09354790737405262</v>
+      </c>
+      <c r="H58">
+        <v>-0.4163694162701996</v>
+      </c>
+      <c r="I58">
+        <v>-0.1014848246544633</v>
+      </c>
+      <c r="J58">
+        <v>0.7451268194895697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.005259776879113203</v>
+        <v>-0.03732992727003767</v>
       </c>
       <c r="C59">
-        <v>-0.2032368378721137</v>
+        <v>-0.1400285808348064</v>
       </c>
       <c r="D59">
-        <v>0.008241214701407965</v>
+        <v>0.1412477179956373</v>
       </c>
       <c r="E59">
-        <v>-0.05789764816306296</v>
+        <v>-0.002314778662420034</v>
       </c>
       <c r="F59">
-        <v>-0.01864207355906167</v>
+        <v>0.07156838462181839</v>
       </c>
       <c r="G59">
-        <v>-0.017816711013668</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004249429433975584</v>
+      </c>
+      <c r="H59">
+        <v>0.01600672075924387</v>
+      </c>
+      <c r="I59">
+        <v>-0.06434785222859062</v>
+      </c>
+      <c r="J59">
+        <v>-0.008809152718360445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1873524451685265</v>
+        <v>-0.1843384745388168</v>
       </c>
       <c r="C60">
-        <v>-0.1055273873254494</v>
+        <v>-0.007089742265978117</v>
       </c>
       <c r="D60">
-        <v>0.02000101617486519</v>
+        <v>0.07243854713497473</v>
       </c>
       <c r="E60">
-        <v>-0.1744932713659235</v>
+        <v>0.009770669627357058</v>
       </c>
       <c r="F60">
-        <v>-0.05095229621239979</v>
+        <v>0.1991091741477271</v>
       </c>
       <c r="G60">
-        <v>-0.01431280965439012</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1232791549003706</v>
+      </c>
+      <c r="H60">
+        <v>0.250988250786978</v>
+      </c>
+      <c r="I60">
+        <v>0.08673435996582922</v>
+      </c>
+      <c r="J60">
+        <v>0.02281927625271642</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04926206966677742</v>
+        <v>-0.03836291137297532</v>
       </c>
       <c r="C61">
-        <v>0.002002885806060726</v>
+        <v>0.01895623566167757</v>
       </c>
       <c r="D61">
-        <v>-0.00576140807540121</v>
+        <v>-0.01485560040585555</v>
       </c>
       <c r="E61">
-        <v>-0.04364986730613817</v>
+        <v>0.003618756856682872</v>
       </c>
       <c r="F61">
-        <v>-0.01412299116191194</v>
+        <v>0.04066834845649415</v>
       </c>
       <c r="G61">
-        <v>-0.01228376040460913</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008179850377952375</v>
+      </c>
+      <c r="H61">
+        <v>0.003412590976649453</v>
+      </c>
+      <c r="I61">
+        <v>0.04244319170973069</v>
+      </c>
+      <c r="J61">
+        <v>-0.01121444062069556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04756491248694476</v>
+        <v>-0.03254501501602959</v>
       </c>
       <c r="C63">
-        <v>-0.004310428429336896</v>
+        <v>0.01562611759113686</v>
       </c>
       <c r="D63">
-        <v>0.01586969903241978</v>
+        <v>-0.009273065304306279</v>
       </c>
       <c r="E63">
-        <v>-0.03287824679576438</v>
+        <v>0.01449058257568928</v>
       </c>
       <c r="F63">
-        <v>-0.005387965766361451</v>
+        <v>0.0294896265908792</v>
       </c>
       <c r="G63">
-        <v>-0.02015276928538906</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.02073310321698969</v>
+      </c>
+      <c r="H63">
+        <v>-0.03610062575677916</v>
+      </c>
+      <c r="I63">
+        <v>-0.01598531560059249</v>
+      </c>
+      <c r="J63">
+        <v>-0.04658204859763582</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08067568392611595</v>
+        <v>-0.05564501429105155</v>
       </c>
       <c r="C64">
-        <v>0.04078067979840107</v>
+        <v>0.0295417562999731</v>
       </c>
       <c r="D64">
-        <v>0.06243287861809252</v>
+        <v>-0.04212886637942765</v>
       </c>
       <c r="E64">
-        <v>-0.06079589372410563</v>
+        <v>0.03986308382751216</v>
       </c>
       <c r="F64">
-        <v>-0.06367280137475173</v>
+        <v>0.05729234463258932</v>
       </c>
       <c r="G64">
-        <v>0.02306280046711552</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0538921846365182</v>
+      </c>
+      <c r="H64">
+        <v>0.01459900386428005</v>
+      </c>
+      <c r="I64">
+        <v>0.002057817104784717</v>
+      </c>
+      <c r="J64">
+        <v>-0.09225615362662672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01990079406848052</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.0009968333082737643</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.008670266451121121</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00257224939019664</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001673278698728474</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02180819033136588</v>
+      </c>
+      <c r="H65">
+        <v>-0.001023345808611669</v>
+      </c>
+      <c r="I65">
+        <v>0.01106189450759221</v>
+      </c>
+      <c r="J65">
+        <v>-0.002629638489923052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09661104601557965</v>
+        <v>-0.06939413875229317</v>
       </c>
       <c r="C66">
-        <v>0.02339668862280267</v>
+        <v>0.05136428290508913</v>
       </c>
       <c r="D66">
-        <v>0.04043129258934844</v>
+        <v>-0.02300384844588995</v>
       </c>
       <c r="E66">
-        <v>-0.07571205827198978</v>
+        <v>0.04347515040233256</v>
       </c>
       <c r="F66">
-        <v>-0.04447349921275847</v>
+        <v>0.07017380920195238</v>
       </c>
       <c r="G66">
-        <v>-0.0282396834809563</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01230166820742258</v>
+      </c>
+      <c r="H66">
+        <v>0.008737564937438318</v>
+      </c>
+      <c r="I66">
+        <v>0.06319814283166682</v>
+      </c>
+      <c r="J66">
+        <v>-0.05411444005788438</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06378575098171062</v>
+        <v>-0.04559701916939841</v>
       </c>
       <c r="C67">
-        <v>-0.01608027992303337</v>
+        <v>-0.002350830394137654</v>
       </c>
       <c r="D67">
-        <v>0.01095462578167552</v>
+        <v>0.004686709474563259</v>
       </c>
       <c r="E67">
-        <v>-0.02980492284966179</v>
+        <v>0.00711791825974722</v>
       </c>
       <c r="F67">
-        <v>-0.008462859178815098</v>
+        <v>0.04054382256381466</v>
       </c>
       <c r="G67">
-        <v>0.03554819182194503</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03099647998967274</v>
+      </c>
+      <c r="H67">
+        <v>0.01572868427764592</v>
+      </c>
+      <c r="I67">
+        <v>0.03988965771286834</v>
+      </c>
+      <c r="J67">
+        <v>0.0005379259639426246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.005300268537087886</v>
+        <v>-0.04420639251337451</v>
       </c>
       <c r="C68">
-        <v>-0.2468454204559705</v>
+        <v>-0.1691607016126528</v>
       </c>
       <c r="D68">
-        <v>-0.01099608296202313</v>
+        <v>0.1609703526214656</v>
       </c>
       <c r="E68">
-        <v>-0.04392455298603653</v>
+        <v>-0.01425840789692348</v>
       </c>
       <c r="F68">
-        <v>-0.01141900352957012</v>
+        <v>0.05483239183168528</v>
       </c>
       <c r="G68">
-        <v>-0.03121184589837217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0030764359187507</v>
+      </c>
+      <c r="H68">
+        <v>0.006390134607424532</v>
+      </c>
+      <c r="I68">
+        <v>-0.1681369457496175</v>
+      </c>
+      <c r="J68">
+        <v>0.005505863925927185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06969964680560893</v>
+        <v>-0.07162927746999834</v>
       </c>
       <c r="C69">
-        <v>0.01076321590768859</v>
+        <v>0.02007439606833624</v>
       </c>
       <c r="D69">
-        <v>0.02276698489455252</v>
+        <v>-0.007424143661251541</v>
       </c>
       <c r="E69">
-        <v>0.01349342951601506</v>
+        <v>0.02977446257591222</v>
       </c>
       <c r="F69">
-        <v>-6.144550255457179e-05</v>
+        <v>0.000953108785145946</v>
       </c>
       <c r="G69">
-        <v>-0.02593109123465158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.03207410978810017</v>
+      </c>
+      <c r="H69">
+        <v>-0.025031689735415</v>
+      </c>
+      <c r="I69">
+        <v>0.01425095011133992</v>
+      </c>
+      <c r="J69">
+        <v>-0.0295133797990381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.006012340193362989</v>
+        <v>-0.04799846203437507</v>
       </c>
       <c r="C71">
-        <v>-0.2729636656678257</v>
+        <v>-0.1792612118280238</v>
       </c>
       <c r="D71">
-        <v>-0.009868289990639101</v>
+        <v>0.1793595137631587</v>
       </c>
       <c r="E71">
-        <v>-0.08032316147422316</v>
+        <v>-0.03682753733144462</v>
       </c>
       <c r="F71">
-        <v>-0.0235127072453283</v>
+        <v>0.07998328519098466</v>
       </c>
       <c r="G71">
-        <v>-0.04700228773445899</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01215001590078963</v>
+      </c>
+      <c r="H71">
+        <v>0.03112960135982508</v>
+      </c>
+      <c r="I71">
+        <v>-0.1308559626647016</v>
+      </c>
+      <c r="J71">
+        <v>-0.02018377001103485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1155137207345996</v>
+        <v>-0.1209405985282107</v>
       </c>
       <c r="C72">
-        <v>-0.01068249438436857</v>
+        <v>0.01627869878682819</v>
       </c>
       <c r="D72">
-        <v>0.04594388557229434</v>
+        <v>-0.002702387772417963</v>
       </c>
       <c r="E72">
-        <v>-0.09783000874460072</v>
+        <v>0.05415372937344221</v>
       </c>
       <c r="F72">
-        <v>0.005258089454895419</v>
+        <v>0.08752214907863233</v>
       </c>
       <c r="G72">
-        <v>0.01375708728202503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04783096724372707</v>
+      </c>
+      <c r="H72">
+        <v>-0.02554656120392324</v>
+      </c>
+      <c r="I72">
+        <v>0.03734510324256526</v>
+      </c>
+      <c r="J72">
+        <v>0.08531107342345635</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2770521528040862</v>
+        <v>-0.2648661666957557</v>
       </c>
       <c r="C73">
-        <v>-0.1722529503395767</v>
+        <v>-0.01387064655940788</v>
       </c>
       <c r="D73">
-        <v>-0.03284854626661549</v>
+        <v>0.1356577022543043</v>
       </c>
       <c r="E73">
-        <v>-0.3291250266632649</v>
+        <v>-0.03591236940236676</v>
       </c>
       <c r="F73">
-        <v>-0.05498570376296412</v>
+        <v>0.3080027810502222</v>
       </c>
       <c r="G73">
-        <v>0.01665006645007534</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.2501906426082643</v>
+      </c>
+      <c r="H73">
+        <v>0.4361921753902716</v>
+      </c>
+      <c r="I73">
+        <v>0.2902382247530059</v>
+      </c>
+      <c r="J73">
+        <v>0.09169337420331557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1583532553200791</v>
+        <v>-0.1524354558096014</v>
       </c>
       <c r="C74">
-        <v>-0.004762052277885215</v>
+        <v>0.02622195103957371</v>
       </c>
       <c r="D74">
-        <v>0.04196426426660096</v>
+        <v>-0.001279649932792092</v>
       </c>
       <c r="E74">
-        <v>0.0197710563528147</v>
+        <v>0.04822851428802304</v>
       </c>
       <c r="F74">
-        <v>0.05994839190370668</v>
+        <v>-0.05264436180132979</v>
       </c>
       <c r="G74">
-        <v>-0.04429567848308532</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01891378219882919</v>
+      </c>
+      <c r="H74">
+        <v>0.02524285974400621</v>
+      </c>
+      <c r="I74">
+        <v>0.005536874770771417</v>
+      </c>
+      <c r="J74">
+        <v>-0.08191709878057109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2339971917228979</v>
+        <v>-0.2461777011374154</v>
       </c>
       <c r="C75">
-        <v>-0.01892610396642667</v>
+        <v>0.02703573397798047</v>
       </c>
       <c r="D75">
-        <v>0.06431864846366143</v>
+        <v>0.01709676688974746</v>
       </c>
       <c r="E75">
-        <v>0.1279350212249856</v>
+        <v>0.1053315179063246</v>
       </c>
       <c r="F75">
-        <v>0.05162132554851272</v>
+        <v>-0.1395123343089786</v>
       </c>
       <c r="G75">
-        <v>-0.02386379026931046</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006307663987761424</v>
+      </c>
+      <c r="H75">
+        <v>0.01670828709548536</v>
+      </c>
+      <c r="I75">
+        <v>-0.08537562376130174</v>
+      </c>
+      <c r="J75">
+        <v>-0.05538891060010188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2463289043170864</v>
+        <v>-0.26926041893375</v>
       </c>
       <c r="C76">
-        <v>-0.01831208913334253</v>
+        <v>0.007738396411828967</v>
       </c>
       <c r="D76">
-        <v>0.1044514337341932</v>
+        <v>-0.01581347654970978</v>
       </c>
       <c r="E76">
-        <v>0.1214420605123018</v>
+        <v>0.1316825614505159</v>
       </c>
       <c r="F76">
-        <v>0.07876862630874611</v>
+        <v>-0.1757345539216676</v>
       </c>
       <c r="G76">
-        <v>-0.03240373653557681</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05269280293744022</v>
+      </c>
+      <c r="H76">
+        <v>0.03562837888133954</v>
+      </c>
+      <c r="I76">
+        <v>-0.004232883800196468</v>
+      </c>
+      <c r="J76">
+        <v>-0.0676214856820187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1319366071932282</v>
+        <v>-0.1301238316004127</v>
       </c>
       <c r="C77">
-        <v>0.01831701436965875</v>
+        <v>0.05757736567525752</v>
       </c>
       <c r="D77">
-        <v>-0.04484440178740798</v>
+        <v>-0.03259521504019379</v>
       </c>
       <c r="E77">
-        <v>-0.152371187282944</v>
+        <v>-0.03986577886214954</v>
       </c>
       <c r="F77">
-        <v>-0.019219666249097</v>
+        <v>0.164847571521904</v>
       </c>
       <c r="G77">
-        <v>0.05532509027184797</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.02911840676007696</v>
+      </c>
+      <c r="H77">
+        <v>-0.1937214082302249</v>
+      </c>
+      <c r="I77">
+        <v>-0.1383422516738113</v>
+      </c>
+      <c r="J77">
+        <v>-0.1483162200073821</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08565792113807928</v>
+        <v>-0.0836241695445597</v>
       </c>
       <c r="C78">
-        <v>0.03835748380279401</v>
+        <v>0.05055183368822663</v>
       </c>
       <c r="D78">
-        <v>-0.01572052595295085</v>
+        <v>-0.04450352062696237</v>
       </c>
       <c r="E78">
-        <v>-0.05342504784200795</v>
+        <v>-0.001140750952696746</v>
       </c>
       <c r="F78">
-        <v>-0.01666598224289114</v>
+        <v>0.07743641117795376</v>
       </c>
       <c r="G78">
-        <v>-0.02182894887163738</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01147116454192649</v>
+      </c>
+      <c r="H78">
+        <v>-0.02698249514887483</v>
+      </c>
+      <c r="I78">
+        <v>-0.009129269800266789</v>
+      </c>
+      <c r="J78">
+        <v>-0.05938552858338638</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.06953666336743672</v>
+        <v>-0.1511656829090381</v>
       </c>
       <c r="C80">
-        <v>0.01130459974957542</v>
+        <v>-0.6554761658014076</v>
       </c>
       <c r="D80">
-        <v>-0.0335716991746478</v>
+        <v>-0.718312541107317</v>
       </c>
       <c r="E80">
-        <v>-0.01140179076864035</v>
+        <v>-0.06753169422625964</v>
       </c>
       <c r="F80">
-        <v>0.09871659483226068</v>
+        <v>0.04839548200281981</v>
       </c>
       <c r="G80">
-        <v>0.929129344762446</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03873783538429777</v>
+      </c>
+      <c r="H80">
+        <v>0.05746468390950896</v>
+      </c>
+      <c r="I80">
+        <v>-0.002190016530568586</v>
+      </c>
+      <c r="J80">
+        <v>0.1043085311483409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1626033980435236</v>
+        <v>-0.1814693184165023</v>
       </c>
       <c r="C81">
-        <v>-0.01559699801166812</v>
+        <v>0.006212728803302555</v>
       </c>
       <c r="D81">
-        <v>0.04808742956922656</v>
+        <v>0.006321853784791461</v>
       </c>
       <c r="E81">
-        <v>0.1481281976656401</v>
+        <v>0.08537025831062352</v>
       </c>
       <c r="F81">
-        <v>0.1064475868967684</v>
+        <v>-0.1585992683741304</v>
       </c>
       <c r="G81">
-        <v>-0.02243094738392377</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02796180175799389</v>
+      </c>
+      <c r="H81">
+        <v>0.007319374643577205</v>
+      </c>
+      <c r="I81">
+        <v>-0.04677344967086058</v>
+      </c>
+      <c r="J81">
+        <v>-0.02106580995636307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09325802844004218</v>
+        <v>-0.06870763947248081</v>
       </c>
       <c r="C83">
-        <v>0.04112024590786439</v>
+        <v>0.0465494875702908</v>
       </c>
       <c r="D83">
-        <v>-0.08066533721017412</v>
+        <v>-0.01765698553019185</v>
       </c>
       <c r="E83">
-        <v>-0.01658462789239713</v>
+        <v>-0.03975258129954282</v>
       </c>
       <c r="F83">
-        <v>-0.0654142578761349</v>
+        <v>0.05022477287496376</v>
       </c>
       <c r="G83">
-        <v>-0.02692541368585605</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05956426846500577</v>
+      </c>
+      <c r="H83">
+        <v>-0.006011028587602846</v>
+      </c>
+      <c r="I83">
+        <v>0.003784505860996103</v>
+      </c>
+      <c r="J83">
+        <v>-0.08134405607850953</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2358826752795641</v>
+        <v>-0.2537483477808283</v>
       </c>
       <c r="C85">
-        <v>0.0454006771816002</v>
+        <v>0.04534259437020979</v>
       </c>
       <c r="D85">
-        <v>0.06141803712156412</v>
+        <v>-0.02454083028303484</v>
       </c>
       <c r="E85">
-        <v>0.1517923347279245</v>
+        <v>0.08924279027108512</v>
       </c>
       <c r="F85">
-        <v>0.07667408684733955</v>
+        <v>-0.1792662948006276</v>
       </c>
       <c r="G85">
-        <v>-0.01797944667135456</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.002979700813811368</v>
+      </c>
+      <c r="H85">
+        <v>-0.01981782017966445</v>
+      </c>
+      <c r="I85">
+        <v>-0.04055150234139845</v>
+      </c>
+      <c r="J85">
+        <v>-0.1053034251618061</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04749804633809736</v>
+        <v>-0.02688624525870401</v>
       </c>
       <c r="C86">
-        <v>0.04485640344921559</v>
+        <v>0.04610678850981911</v>
       </c>
       <c r="D86">
-        <v>0.01799303867452186</v>
+        <v>-0.03819702769584072</v>
       </c>
       <c r="E86">
-        <v>-0.06088509322891573</v>
+        <v>0.00926453628023409</v>
       </c>
       <c r="F86">
-        <v>-0.0004397895004452166</v>
+        <v>0.07127648098319059</v>
       </c>
       <c r="G86">
-        <v>-0.03868791936558896</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.01298634328274704</v>
+      </c>
+      <c r="H86">
+        <v>-0.06232391760037918</v>
+      </c>
+      <c r="I86">
+        <v>-0.0143928122736083</v>
+      </c>
+      <c r="J86">
+        <v>-0.0534966101279267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.01986588366547018</v>
+        <v>-0.03365539428287496</v>
       </c>
       <c r="C87">
-        <v>-0.05001383927089464</v>
+        <v>-0.0105377236693154</v>
       </c>
       <c r="D87">
-        <v>0.006822769856238553</v>
+        <v>0.01531802982576398</v>
       </c>
       <c r="E87">
-        <v>-0.09888532097387756</v>
+        <v>0.001455312719724432</v>
       </c>
       <c r="F87">
-        <v>0.007379660242846877</v>
+        <v>0.1034561497302707</v>
       </c>
       <c r="G87">
-        <v>-0.04903284355374848</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.0208722576158073</v>
+      </c>
+      <c r="H87">
+        <v>-0.01984553567923854</v>
+      </c>
+      <c r="I87">
+        <v>0.02289040842739356</v>
+      </c>
+      <c r="J87">
+        <v>-0.01059615192060452</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03977472393318812</v>
+        <v>-0.02847974775954351</v>
       </c>
       <c r="C88">
-        <v>0.02783853830121549</v>
+        <v>0.008459308078711028</v>
       </c>
       <c r="D88">
-        <v>0.01049664160715276</v>
+        <v>-0.02224233231727163</v>
       </c>
       <c r="E88">
-        <v>0.01117157709111978</v>
+        <v>0.01711783039199649</v>
       </c>
       <c r="F88">
-        <v>0.01366101554613135</v>
+        <v>-0.01017415215260368</v>
       </c>
       <c r="G88">
-        <v>-0.006431374037905797</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.0405972211706706</v>
+      </c>
+      <c r="H88">
+        <v>-0.03158780846458825</v>
+      </c>
+      <c r="I88">
+        <v>0.03377648413290536</v>
+      </c>
+      <c r="J88">
+        <v>-0.03224794753374745</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.0128146450673808</v>
+        <v>-0.06359549382859095</v>
       </c>
       <c r="C89">
-        <v>-0.4158448587849239</v>
+        <v>-0.2741506587304742</v>
       </c>
       <c r="D89">
-        <v>-0.1003526889457165</v>
+        <v>0.2844169115015964</v>
       </c>
       <c r="E89">
-        <v>0.01029260811649773</v>
+        <v>-0.06203327734878458</v>
       </c>
       <c r="F89">
-        <v>-0.01167074136600229</v>
+        <v>0.03405474180460907</v>
       </c>
       <c r="G89">
-        <v>-0.03990922126867921</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.05388628972044097</v>
+      </c>
+      <c r="H89">
+        <v>-0.0341381395061309</v>
+      </c>
+      <c r="I89">
+        <v>-0.2709639632052682</v>
+      </c>
+      <c r="J89">
+        <v>-0.02650518779119343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.01046738822181308</v>
+        <v>-0.04256721740753359</v>
       </c>
       <c r="C90">
-        <v>-0.310453876418087</v>
+        <v>-0.2451544244368894</v>
       </c>
       <c r="D90">
-        <v>-0.033955843022929</v>
+        <v>0.2293378776625643</v>
       </c>
       <c r="E90">
-        <v>-0.04357324847897223</v>
+        <v>-0.04366952455415775</v>
       </c>
       <c r="F90">
-        <v>-0.01985833398329193</v>
+        <v>0.03415098137010113</v>
       </c>
       <c r="G90">
-        <v>-0.0475845788232912</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02872986701382556</v>
+      </c>
+      <c r="H90">
+        <v>-0.00215663800399454</v>
+      </c>
+      <c r="I90">
+        <v>-0.2260884928157007</v>
+      </c>
+      <c r="J90">
+        <v>-0.03715661498143403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2926106490891447</v>
+        <v>-0.3082788978636193</v>
       </c>
       <c r="C91">
-        <v>0.01027914148908514</v>
+        <v>0.03590301595016336</v>
       </c>
       <c r="D91">
-        <v>0.06537097227054489</v>
+        <v>-0.007150076686272778</v>
       </c>
       <c r="E91">
-        <v>0.288937838094563</v>
+        <v>0.1000182881333612</v>
       </c>
       <c r="F91">
-        <v>0.1611871568647291</v>
+        <v>-0.2948449789331986</v>
       </c>
       <c r="G91">
-        <v>0.07914904873704581</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.03732682801450575</v>
+      </c>
+      <c r="H91">
+        <v>0.008954279933838764</v>
+      </c>
+      <c r="I91">
+        <v>-0.1050279239389118</v>
+      </c>
+      <c r="J91">
+        <v>-0.1091580750109903</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.00166745395386046</v>
+        <v>-0.09798583397589496</v>
       </c>
       <c r="C92">
-        <v>-0.4268060586829909</v>
+        <v>-0.3353954158478745</v>
       </c>
       <c r="D92">
-        <v>-0.2169802780279775</v>
+        <v>0.2844232176607276</v>
       </c>
       <c r="E92">
-        <v>0.1332825165143967</v>
+        <v>-0.08239006716377312</v>
       </c>
       <c r="F92">
-        <v>0.0665532562646831</v>
+        <v>-0.1204571970147608</v>
       </c>
       <c r="G92">
-        <v>0.1381233576037084</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.1599617632217577</v>
+      </c>
+      <c r="H92">
+        <v>-0.4038467834714566</v>
+      </c>
+      <c r="I92">
+        <v>0.7403846083059911</v>
+      </c>
+      <c r="J92">
+        <v>-0.09245516590929105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.01980752807258612</v>
+        <v>-0.04815482576729602</v>
       </c>
       <c r="C93">
-        <v>-0.3754180596775878</v>
+        <v>-0.2900472871770138</v>
       </c>
       <c r="D93">
-        <v>-0.07847342207245336</v>
+        <v>0.2914475378473482</v>
       </c>
       <c r="E93">
-        <v>0.03145748857139126</v>
+        <v>-0.07896974405395941</v>
       </c>
       <c r="F93">
-        <v>0.01050444088724383</v>
+        <v>-0.001526266350457857</v>
       </c>
       <c r="G93">
-        <v>0.03600470116473971</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03754871334505436</v>
+      </c>
+      <c r="H93">
+        <v>0.02282343607457157</v>
+      </c>
+      <c r="I93">
+        <v>-0.1866937447993172</v>
+      </c>
+      <c r="J93">
+        <v>-0.00692778225910125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2761042978087031</v>
+        <v>-0.3057741812299054</v>
       </c>
       <c r="C94">
-        <v>-0.064590535554573</v>
+        <v>0.01430423435487262</v>
       </c>
       <c r="D94">
-        <v>0.005290888814325789</v>
+        <v>0.04556480436158845</v>
       </c>
       <c r="E94">
-        <v>0.3442031664585963</v>
+        <v>0.1318070829475143</v>
       </c>
       <c r="F94">
-        <v>0.405245411561487</v>
+        <v>-0.3396018911522195</v>
       </c>
       <c r="G94">
-        <v>-0.1477761643354736</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1590698817725886</v>
+      </c>
+      <c r="H94">
+        <v>-0.1719845237905755</v>
+      </c>
+      <c r="I94">
+        <v>-0.04290884176304654</v>
+      </c>
+      <c r="J94">
+        <v>0.1928907200478589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1966225781717195</v>
+        <v>-0.1293898869785049</v>
       </c>
       <c r="C95">
-        <v>-0.02293299524378623</v>
+        <v>0.1050993652982182</v>
       </c>
       <c r="D95">
-        <v>-0.006861767127173101</v>
+        <v>0.0393966324244863</v>
       </c>
       <c r="E95">
-        <v>0.4282129838137103</v>
+        <v>0.02596628988383639</v>
       </c>
       <c r="F95">
-        <v>-0.8292584701887773</v>
+        <v>-0.0543002352945577</v>
       </c>
       <c r="G95">
-        <v>0.0700991785820862</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8654956931718288</v>
+      </c>
+      <c r="H95">
+        <v>0.301730927173065</v>
+      </c>
+      <c r="I95">
+        <v>0.02167258325494335</v>
+      </c>
+      <c r="J95">
+        <v>0.2790704112372704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.221303459227752</v>
+        <v>-0.2056830568923814</v>
       </c>
       <c r="C98">
-        <v>-0.1207144561259309</v>
+        <v>-0.009240567755169854</v>
       </c>
       <c r="D98">
-        <v>-0.03916495168394125</v>
+        <v>0.09495137903088903</v>
       </c>
       <c r="E98">
-        <v>-0.09367213878948105</v>
+        <v>-0.02925897057801521</v>
       </c>
       <c r="F98">
-        <v>-0.04194109535424456</v>
+        <v>0.1555626886968605</v>
       </c>
       <c r="G98">
-        <v>-0.04518969502615396</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1381298652381731</v>
+      </c>
+      <c r="H98">
+        <v>0.3219242746647924</v>
+      </c>
+      <c r="I98">
+        <v>0.1422078070343295</v>
+      </c>
+      <c r="J98">
+        <v>0.09048390816492571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02064061748911441</v>
+        <v>-0.01516411608642637</v>
       </c>
       <c r="C101">
-        <v>0.01435313593389505</v>
+        <v>0.02093158740226032</v>
       </c>
       <c r="D101">
-        <v>0.02482184954904721</v>
+        <v>-0.02425164307690696</v>
       </c>
       <c r="E101">
-        <v>-0.02522948046624069</v>
+        <v>0.03026772431322115</v>
       </c>
       <c r="F101">
-        <v>-0.01757817244695398</v>
+        <v>0.0684554251663511</v>
       </c>
       <c r="G101">
-        <v>-0.02804371621232411</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03299815134285975</v>
+      </c>
+      <c r="H101">
+        <v>-0.1079704334390396</v>
+      </c>
+      <c r="I101">
+        <v>0.01054011341631913</v>
+      </c>
+      <c r="J101">
+        <v>0.113450448020935</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.115958681200048</v>
+        <v>-0.1210562029089898</v>
       </c>
       <c r="C102">
-        <v>0.007728815480687861</v>
+        <v>0.01615771561507755</v>
       </c>
       <c r="D102">
-        <v>0.03680589460259815</v>
+        <v>-0.01442483118606489</v>
       </c>
       <c r="E102">
-        <v>0.08555578360843494</v>
+        <v>0.05375053657812823</v>
       </c>
       <c r="F102">
-        <v>0.01006154374628294</v>
+        <v>-0.09420134064492074</v>
       </c>
       <c r="G102">
-        <v>0.01726566879551334</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.019596635400123</v>
+      </c>
+      <c r="H102">
+        <v>0.02787778516302448</v>
+      </c>
+      <c r="I102">
+        <v>-0.03961224869165567</v>
+      </c>
+      <c r="J102">
+        <v>-0.04635155138684233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01791419153598593</v>
+        <v>-0.03107170317114581</v>
       </c>
       <c r="C103">
-        <v>0.0004375007029148192</v>
+        <v>0.001565889043615306</v>
       </c>
       <c r="D103">
-        <v>0.0118800179234948</v>
+        <v>-0.01014382131987975</v>
       </c>
       <c r="E103">
-        <v>0.02813173673618061</v>
+        <v>0.02040533027301921</v>
       </c>
       <c r="F103">
-        <v>0.01156430741043523</v>
+        <v>-0.02304643758520758</v>
       </c>
       <c r="G103">
-        <v>-0.01997038496135708</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0179925817470547</v>
+      </c>
+      <c r="H103">
+        <v>-0.01152110969517498</v>
+      </c>
+      <c r="I103">
+        <v>-0.02378364376602393</v>
+      </c>
+      <c r="J103">
+        <v>-0.01725467320332616</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
